--- a/FISHTRADER/ARIMA/Grafico 5 - Proteina/db_mt30.xlsx
+++ b/FISHTRADER/ARIMA/Grafico 5 - Proteina/db_mt30.xlsx
@@ -148,10 +148,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -242,6 +242,41 @@
       </c>
       <c r="C8" s="4" t="n">
         <v>4419242</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>46752</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>47118</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>47483</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>47848</v>
       </c>
     </row>
   </sheetData>
